--- a/pred_ohlcv/54_21/2019-10-05 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-05 FAB ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>3314634.205517202</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>3314645.205517202</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>3314645.205517202</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>3314645.205517202</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>3309460.850117202</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>3309460.850117202</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>3309460.850117202</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>3474201.521117202</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>3473654.075861727</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>3473654.075861727</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>3433497.512461727</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>3435508.512461727</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2884710.658961727</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2884710.658961727</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2884710.658961727</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>2928777.854461727</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2928777.854461727</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2928777.854461727</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2928777.854461727</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2927677.945661727</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2927688.945661727</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2735410.567061727</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2735783.739561727</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2650663.237961727</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2651014.497061727</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2651014.497061727</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2060754.447961727</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2061088.142761727</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>2061088.142761727</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-480453.6578382729</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-480453.6578382729</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-480453.6578382729</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-489613.570638273</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-555351.9038382729</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-555341.9038382729</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-609741.9038382729</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-391277.7139382728</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-391277.7139382728</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-391043.6641382729</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-391129.1699382729</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1199651.432038273</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1199641.432038273</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1199733.452238273</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1199250.979938273</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1307472.950838273</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1345882.189338273</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1380571.426638273</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1380560.426638273</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1380560.426638273</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-915062.8630382731</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-915062.8630382731</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-887457.4059382731</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-887492.4059382731</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-888995.363338273</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-815464.324338273</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-767176.4668850622</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-108913.8388318513</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-108913.8388318513</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-109498.8388318513</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-109486.8388318513</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-46243.62883185129</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-46423.62883185129</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-46301.62883185129</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-49468.62883185129</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-592044.6862318512</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-592022.6862318512</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-605286.8928318513</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-605286.8928318513</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-605343.4456318512</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-605332.4456318512</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-595870.1766318512</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-595870.1766318512</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-249030.5768875919</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-249019.5768875919</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-05 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-05 FAB ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>3483442.270217202</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>3314634.205517202</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>3314645.205517202</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>3314645.205517202</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>3314645.205517202</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>3314645.205517202</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>3309460.850117202</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>3309460.850117202</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>3309460.850117202</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>3474201.521117202</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>3473654.075861727</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>3473654.075861727</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>3433497.512461727</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>3435508.512461727</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>3435519.512461727</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2884710.658961727</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2884710.658961727</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2884710.658961727</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2928777.854461727</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2928777.854461727</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2927677.945661727</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2927688.945661727</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2920641.686061727</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2735410.567061727</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2735783.739561727</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2651014.497061727</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-480453.6578382729</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-480453.6578382729</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-480453.6578382729</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-489613.570638273</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-555351.9038382729</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-555341.9038382729</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-609741.9038382729</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-376897.6994382729</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-391277.7139382728</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-391277.7139382728</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-391277.7139382728</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-391043.6641382729</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-391129.1699382729</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1199651.432038273</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1199641.432038273</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1199641.432038273</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1199733.452238273</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1199250.979938273</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1307472.950838273</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1305120.467638273</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1345893.189338273</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1345882.189338273</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1380571.426638273</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1380560.426638273</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1380560.426638273</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1380560.426638273</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1380560.426638273</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1380560.426638273</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-887457.4059382731</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-887492.4059382731</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-815464.324338273</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-834275.074338273</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-834265.074338273</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-847927.924038273</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-832071.8307382731</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-833638.5992382731</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-832954.6806382731</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-754915.3848382732</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-754893.3848382732</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-756934.6805382732</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-761126.0566850621</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-766566.7169850621</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-766555.7169850621</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-767187.4668850622</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-767176.4668850622</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-767176.4668850622</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>208914.8632681489</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>10827.51486814872</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-108913.8388318513</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-108913.8388318513</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-109498.8388318513</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-109486.8388318513</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-46243.62883185129</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-46423.62883185129</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-46301.62883185129</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-49801.62883185129</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-49468.62883185129</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-605286.8928318513</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-605286.8928318513</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-605343.4456318512</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-605332.4456318512</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-595870.1766318512</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-595870.1766318512</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-249030.5768875919</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-249019.5768875919</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
